--- a/src/assets/data/SanPham.xlsx
+++ b/src/assets/data/SanPham.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="20115" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="60" windowWidth="16275" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,61 +16,34 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
-  <si>
-    <t>Loại máy</t>
-  </si>
-  <si>
-    <t>Đời máy</t>
-  </si>
-  <si>
-    <t>Màn hình</t>
-  </si>
-  <si>
-    <t>Chip</t>
-  </si>
-  <si>
-    <t>Tần số</t>
-  </si>
-  <si>
-    <t>Ram</t>
-  </si>
-  <si>
-    <t>Ổ cứng</t>
-  </si>
-  <si>
-    <t>Nhóm</t>
-  </si>
-  <si>
-    <t>imei</t>
-  </si>
-  <si>
-    <t>Giá đại lý cấp 1</t>
-  </si>
-  <si>
-    <t>Giá đại lý cấp 2</t>
-  </si>
-  <si>
-    <t>Giá khách lẻ</t>
-  </si>
-  <si>
-    <t>Mã sản phẩm</t>
-  </si>
-  <si>
-    <t>Chi tiết</t>
-  </si>
-  <si>
-    <t>Màu sắc</t>
-  </si>
-  <si>
-    <t>Chi tiết đặc biệt</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+  <si>
+    <t>Nhóm Sản Phẩm</t>
+  </si>
+  <si>
+    <t>Tên Sản Phẩm</t>
+  </si>
+  <si>
+    <t>IMEI</t>
+  </si>
+  <si>
+    <t>Màu</t>
+  </si>
+  <si>
+    <t>Tình Trạng</t>
+  </si>
+  <si>
+    <t>Số Lượng</t>
+  </si>
+  <si>
+    <t>Giá Tiền</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -78,16 +51,36 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -95,15 +88,36 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFEDF1F7"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFEDF1F7"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFEDF1F7"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFEDF1F7"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -403,77 +417,59 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P1"/>
+  <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R4" sqref="R4"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="10" width="9.140625" style="1"/>
-    <col min="11" max="12" width="14" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="9.140625" style="1"/>
-    <col min="16" max="16" width="15" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="23.28515625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="22.42578125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="39.42578125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" style="3" customWidth="1"/>
+    <col min="5" max="5" width="20.140625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="17" style="3" customWidth="1"/>
+    <col min="7" max="7" width="25.7109375" style="3" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>15</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" r:id="rId1" display="http://localhost:4200/"/>
+    <hyperlink ref="B1" r:id="rId2" display="http://localhost:4200/"/>
+    <hyperlink ref="C1" r:id="rId3" display="http://localhost:4200/"/>
+    <hyperlink ref="D1" r:id="rId4" display="http://localhost:4200/"/>
+    <hyperlink ref="E1" r:id="rId5" display="http://localhost:4200/"/>
+    <hyperlink ref="F1" r:id="rId6" display="http://localhost:4200/"/>
+    <hyperlink ref="G1" r:id="rId7" display="http://localhost:4200/"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId8"/>
 </worksheet>
 </file>
 
